--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:13:19+00:00</t>
+    <t>2025-11-28T01:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:33:25+00:00</t>
+    <t>2025-11-28T01:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:50:23+00:00</t>
+    <t>2025-11-28T01:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:53:43+00:00</t>
+    <t>2025-11-28T01:54:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:54:35+00:00</t>
+    <t>2025-11-28T02:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T02:23:26+00:00</t>
+    <t>2025-11-28T14:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:19:47+00:00</t>
+    <t>2025-11-28T14:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:30:06+00:00</t>
+    <t>2025-11-28T23:45:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T23:45:15+00:00</t>
+    <t>2025-11-29T18:33:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T18:33:05+00:00</t>
+    <t>2025-11-29T20:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:11:04+00:00</t>
+    <t>2025-11-29T20:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:12:38+00:00</t>
+    <t>2025-11-29T20:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:13:59+00:00</t>
+    <t>2025-11-29T20:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:15:31+00:00</t>
+    <t>2025-11-29T20:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:17:30+00:00</t>
+    <t>2025-11-29T20:18:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:18:47+00:00</t>
+    <t>2025-11-29T20:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:28:17+00:00</t>
+    <t>2025-11-29T22:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:25:22+00:00</t>
+    <t>2025-11-29T22:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:30:40+00:00</t>
+    <t>2025-11-29T22:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:31:14+00:00</t>
+    <t>2025-11-29T22:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:31:57+00:00</t>
+    <t>2025-11-29T22:32:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:32:34+00:00</t>
+    <t>2025-11-29T22:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:36:45+00:00</t>
+    <t>2025-11-29T22:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:37:43+00:00</t>
+    <t>2025-11-29T22:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:52:23+00:00</t>
+    <t>2025-11-29T23:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T23:02:36+00:00</t>
+    <t>2025-11-29T23:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T23:41:46+00:00</t>
+    <t>2025-12-25T09:47:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:47:54+00:00</t>
+    <t>2025-12-25T09:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:53:19+00:00</t>
+    <t>2025-12-25T10:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:01:16+00:00</t>
+    <t>2025-12-25T10:09:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +75,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Value set for Fitzpatrick skin type classifications</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -84,16 +90,43 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>is-a</t>
+    <t>Concept</t>
   </si>
   <si>
     <t>403153005</t>
+  </si>
+  <si>
+    <t>Fitzpatrick skin type I</t>
+  </si>
+  <si>
+    <t>403154004</t>
+  </si>
+  <si>
+    <t>Fitzpatrick skin type II</t>
+  </si>
+  <si>
+    <t>403155003</t>
+  </si>
+  <si>
+    <t>Fitzpatrick skin type III</t>
+  </si>
+  <si>
+    <t>403156002</t>
+  </si>
+  <si>
+    <t>Fitzpatrick skin type IV</t>
+  </si>
+  <si>
+    <t>403157006</t>
+  </si>
+  <si>
+    <t>Fitzpatrick skin type V</t>
+  </si>
+  <si>
+    <t>403158001</t>
+  </si>
+  <si>
+    <t>Fitzpatrick skin type VI</t>
   </si>
   <si>
     <t>System URI</t>
@@ -295,54 +328,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -352,7 +389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -364,40 +401,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:09:41+00:00</t>
+    <t>2025-12-25T10:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:22:11+00:00</t>
+    <t>2025-12-25T10:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:31:12+00:00</t>
+    <t>2025-12-25T10:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:39:21+00:00</t>
+    <t>2025-12-25T10:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:44:58+00:00</t>
+    <t>2025-12-25T23:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T23:47:50+00:00</t>
+    <t>2025-12-26T00:02:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:02:21+00:00</t>
+    <t>2025-12-26T00:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:05:34+00:00</t>
+    <t>2025-12-26T00:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:13:32+00:00</t>
+    <t>2025-12-26T00:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:14:27+00:00</t>
+    <t>2025-12-26T00:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:35:52+00:00</t>
+    <t>2025-12-26T00:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:40:38+00:00</t>
+    <t>2025-12-26T00:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:44:33+00:00</t>
+    <t>2025-12-26T01:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:02:00+00:00</t>
+    <t>2025-12-26T01:05:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:05:32+00:00</t>
+    <t>2025-12-26T01:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:36:34+00:00</t>
+    <t>2025-12-26T01:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:59:09+00:00</t>
+    <t>2025-12-26T02:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T02:26:51+00:00</t>
+    <t>2025-12-26T10:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:04:19+00:00</t>
+    <t>2025-12-26T10:13:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:13:27+00:00</t>
+    <t>2025-12-26T10:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:16:19+00:00</t>
+    <t>2025-12-26T10:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:24:22+00:00</t>
+    <t>2025-12-26T10:42:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:42:17+00:00</t>
+    <t>2025-12-26T10:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:50:19+00:00</t>
+    <t>2025-12-26T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:20:10+00:00</t>
+    <t>2025-12-26T11:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:23:52+00:00</t>
+    <t>2025-12-26T11:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:26:31+00:00</t>
+    <t>2025-12-26T11:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:27:38+00:00</t>
+    <t>2025-12-26T11:28:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:28:30+00:00</t>
+    <t>2025-12-26T11:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:29:16+00:00</t>
+    <t>2025-12-26T11:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:01+00:00</t>
+    <t>2025-12-26T11:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:54+00:00</t>
+    <t>2025-12-26T11:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:31:25+00:00</t>
+    <t>2025-12-26T11:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:15+00:00</t>
+    <t>2025-12-26T11:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:54+00:00</t>
+    <t>2025-12-26T11:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:01+00:00</t>
+    <t>2025-12-26T11:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:23+00:00</t>
+    <t>2025-12-26T11:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:47+00:00</t>
+    <t>2025-12-26T11:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:36:15+00:00</t>
+    <t>2025-12-26T11:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:47:29+00:00</t>
+    <t>2025-12-26T12:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:00:12+00:00</t>
+    <t>2025-12-26T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:02:28+00:00</t>
+    <t>2025-12-26T12:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:06:48+00:00</t>
+    <t>2025-12-26T12:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:07:46+00:00</t>
+    <t>2025-12-26T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:14:29+00:00</t>
+    <t>2025-12-26T12:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:21:51+00:00</t>
+    <t>2025-12-26T14:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,46 +93,46 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>403153005</t>
-  </si>
-  <si>
-    <t>Fitzpatrick skin type I</t>
-  </si>
-  <si>
-    <t>403154004</t>
-  </si>
-  <si>
-    <t>Fitzpatrick skin type II</t>
-  </si>
-  <si>
-    <t>403155003</t>
-  </si>
-  <si>
-    <t>Fitzpatrick skin type III</t>
-  </si>
-  <si>
-    <t>403156002</t>
-  </si>
-  <si>
-    <t>Fitzpatrick skin type IV</t>
-  </si>
-  <si>
-    <t>403157006</t>
-  </si>
-  <si>
-    <t>Fitzpatrick skin type V</t>
-  </si>
-  <si>
-    <t>403158001</t>
-  </si>
-  <si>
-    <t>Fitzpatrick skin type VI</t>
+    <t>fitzpatrick-1</t>
+  </si>
+  <si>
+    <t>Type I</t>
+  </si>
+  <si>
+    <t>fitzpatrick-2</t>
+  </si>
+  <si>
+    <t>Type II</t>
+  </si>
+  <si>
+    <t>fitzpatrick-3</t>
+  </si>
+  <si>
+    <t>Type III</t>
+  </si>
+  <si>
+    <t>fitzpatrick-4</t>
+  </si>
+  <si>
+    <t>Type IV</t>
+  </si>
+  <si>
+    <t>fitzpatrick-5</t>
+  </si>
+  <si>
+    <t>Type V</t>
+  </si>
+  <si>
+    <t>fitzpatrick-6</t>
+  </si>
+  <si>
+    <t>Type VI</t>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:28:37+00:00</t>
+    <t>2025-12-26T14:29:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:29:21+00:00</t>
+    <t>2025-12-26T14:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:36:57+00:00</t>
+    <t>2025-12-26T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:04+00:00</t>
+    <t>2025-12-26T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:51+00:00</t>
+    <t>2025-12-26T15:08:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:08:13+00:00</t>
+    <t>2026-01-01T16:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/skintone-vs</t>
+    <t>https://opennursingcoreig.com/ValueSet/skintone-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -60,12 +60,15 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:27:10+00:00</t>
+    <t>2026-01-02T23:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>The Open Nursing Community</t>
+  </si>
+  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
@@ -132,7 +135,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes</t>
+    <t>https://opennursingcoreig.com/CodeSystem/onc-observation-codes</t>
   </si>
 </sst>
 </file>
@@ -344,42 +347,44 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -401,74 +406,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skintone-vs.xlsx
+++ b/ValueSet-skintone-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
